--- a/xlsx/country_comparison/split_many_global_positive.xlsx
+++ b/xlsx/country_comparison/split_many_global_positive.xlsx
@@ -430,34 +430,34 @@
         <v>11</v>
       </c>
       <c r="B2" t="n">
-        <v>0.877415709933137</v>
+        <v>0.888641096202881</v>
       </c>
       <c r="C2" t="n">
-        <v>0.957291558117813</v>
+        <v>0.892113706487357</v>
       </c>
       <c r="D2" t="n">
-        <v>0.988097596197646</v>
+        <v>0.977318817269447</v>
       </c>
       <c r="E2" t="n">
-        <v>0.885496183206107</v>
+        <v>0.783080258844413</v>
       </c>
       <c r="F2" t="n">
-        <v>0.484903110529469</v>
+        <v>0.916882566529653</v>
       </c>
       <c r="G2" t="n">
-        <v>0.996640819716561</v>
+        <v>0.985213759230302</v>
       </c>
       <c r="H2" t="n">
-        <v>0.93817520123759</v>
+        <v>0.928887127215644</v>
       </c>
       <c r="I2" t="n">
-        <v>0.750279705188442</v>
+        <v>0.587306428613404</v>
       </c>
       <c r="J2" t="n">
-        <v>0.739272459216952</v>
+        <v>0.81507351291549</v>
       </c>
       <c r="K2" t="n">
-        <v>0.766937369681362</v>
+        <v>0.803554614381469</v>
       </c>
     </row>
     <row r="3">
@@ -465,34 +465,34 @@
         <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>0.905073440373258</v>
+        <v>0.907460692971717</v>
       </c>
       <c r="C3" t="n">
-        <v>0.909869212194118</v>
+        <v>0.903889809294864</v>
       </c>
       <c r="D3" t="n">
-        <v>0.936386700219393</v>
+        <v>0.894346853603748</v>
       </c>
       <c r="E3" t="n">
-        <v>0.923076923076923</v>
+        <v>0.843667290184157</v>
       </c>
       <c r="F3" t="n">
-        <v>0.544804875592146</v>
+        <v>0.884769338104477</v>
       </c>
       <c r="G3" t="n">
-        <v>0.967853630574958</v>
+        <v>0.960525487032748</v>
       </c>
       <c r="H3" t="n">
-        <v>0.930690048966997</v>
+        <v>0.961468423232594</v>
       </c>
       <c r="I3" t="n">
-        <v>0.989862604009986</v>
+        <v>0.899790770386185</v>
       </c>
       <c r="J3" t="n">
-        <v>0.889725485358462</v>
+        <v>0.886889617946456</v>
       </c>
       <c r="K3" t="n">
-        <v>0.907914498605939</v>
+        <v>0.794861607369954</v>
       </c>
     </row>
     <row r="4">
@@ -500,34 +500,34 @@
         <v>13</v>
       </c>
       <c r="B4" t="n">
-        <v>0.846214364022596</v>
+        <v>0.872074564713608</v>
       </c>
       <c r="C4" t="n">
-        <v>0.949246343824657</v>
+        <v>0.880160454574409</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0.963578880090825</v>
       </c>
       <c r="E4" t="n">
-        <v>0.826086956521739</v>
+        <v>0.862337106131045</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0.915042653921643</v>
       </c>
       <c r="G4" t="n">
-        <v>0.983271080792664</v>
+        <v>0.983212292573018</v>
       </c>
       <c r="H4" t="n">
-        <v>0.971033001484937</v>
+        <v>0.969797438269258</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0.920286057896182</v>
       </c>
       <c r="J4" t="n">
-        <v>0.814467957089603</v>
+        <v>0.795695654520004</v>
       </c>
       <c r="K4" t="n">
-        <v>0.987491908044791</v>
+        <v>0.881859286007646</v>
       </c>
     </row>
     <row r="5">
@@ -535,34 +535,34 @@
         <v>14</v>
       </c>
       <c r="B5" t="n">
-        <v>0.966574599494433</v>
+        <v>0.906804301639464</v>
       </c>
       <c r="C5" t="n">
-        <v>0.977233222324842</v>
+        <v>0.9468046218946</v>
       </c>
       <c r="D5" t="n">
-        <v>0.95969870629235</v>
+        <v>0.967952806643789</v>
       </c>
       <c r="E5" t="n">
-        <v>0.831168831168831</v>
+        <v>0.835983711619876</v>
       </c>
       <c r="F5" t="n">
-        <v>0.60318064500564</v>
+        <v>0.872602742679419</v>
       </c>
       <c r="G5" t="n">
-        <v>0.95459218467583</v>
+        <v>0.951811795218071</v>
       </c>
       <c r="H5" t="n">
-        <v>0.880841771195738</v>
+        <v>0.924420372603302</v>
       </c>
       <c r="I5" t="n">
-        <v>0.737271781398252</v>
+        <v>0.630407048102517</v>
       </c>
       <c r="J5" t="n">
-        <v>0.915579698077004</v>
+        <v>0.894129222943196</v>
       </c>
       <c r="K5" t="n">
-        <v>0.884696766845789</v>
+        <v>0.913515090650987</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/split_many_global_positive.xlsx
+++ b/xlsx/country_comparison/split_many_global_positive.xlsx
@@ -12,11 +12,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">$ bold('All')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$ bold('Europe')</t>
+  </si>
+  <si>
     <t xml:space="preserve">France</t>
   </si>
   <si>
@@ -26,25 +32,25 @@
     <t xml:space="preserve">Italy</t>
   </si>
   <si>
+    <t xml:space="preserve">Poland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Kingdom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switzerland</t>
+  </si>
+  <si>
     <t xml:space="preserve">Japan</t>
   </si>
   <si>
-    <t xml:space="preserve">Poland</t>
-  </si>
-  <si>
     <t xml:space="preserve">Saudi Arabia</t>
   </si>
   <si>
-    <t xml:space="preserve">Spain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Switzerland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United States</t>
+    <t xml:space="preserve">USA</t>
   </si>
   <si>
     <t xml:space="preserve">Global: Education and Healthcare in low-income countries</t>
@@ -424,145 +430,175 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>0.888641096202881</v>
+        <v>0.86819559320201</v>
       </c>
       <c r="C2" t="n">
-        <v>0.892113706487357</v>
+        <v>0.9009114656142</v>
       </c>
       <c r="D2" t="n">
-        <v>0.977318817269447</v>
+        <v>0.886361198970453</v>
       </c>
       <c r="E2" t="n">
-        <v>0.783080258844413</v>
+        <v>0.898916610888067</v>
       </c>
       <c r="F2" t="n">
-        <v>0.916882566529653</v>
+        <v>0.959414806953055</v>
       </c>
       <c r="G2" t="n">
-        <v>0.985213759230302</v>
+        <v>0.905622417392269</v>
       </c>
       <c r="H2" t="n">
-        <v>0.928887127215644</v>
+        <v>0.928887173273317</v>
       </c>
       <c r="I2" t="n">
-        <v>0.587306428613404</v>
+        <v>0.853538915866408</v>
       </c>
       <c r="J2" t="n">
-        <v>0.81507351291549</v>
+        <v>0.888485251655774</v>
       </c>
       <c r="K2" t="n">
-        <v>0.803554614381469</v>
+        <v>0.794353909933474</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.985662647490559</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.854261619735472</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>0.907460692971717</v>
+        <v>0.887416728635225</v>
       </c>
       <c r="C3" t="n">
-        <v>0.903889809294864</v>
+        <v>0.912390601327414</v>
       </c>
       <c r="D3" t="n">
-        <v>0.894346853603748</v>
+        <v>0.908187451930824</v>
       </c>
       <c r="E3" t="n">
-        <v>0.843667290184157</v>
+        <v>0.923779326655355</v>
       </c>
       <c r="F3" t="n">
-        <v>0.884769338104477</v>
+        <v>0.919552063706348</v>
       </c>
       <c r="G3" t="n">
-        <v>0.960525487032748</v>
+        <v>0.905000487502065</v>
       </c>
       <c r="H3" t="n">
-        <v>0.961468423232594</v>
+        <v>0.957757555271109</v>
       </c>
       <c r="I3" t="n">
-        <v>0.899790770386185</v>
+        <v>0.904554003032366</v>
       </c>
       <c r="J3" t="n">
-        <v>0.886889617946456</v>
+        <v>0.832649399963089</v>
       </c>
       <c r="K3" t="n">
-        <v>0.794861607369954</v>
+        <v>0.845694943055003</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.963896373943999</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.864590085900981</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>0.872074564713608</v>
+        <v>0.896166639398233</v>
       </c>
       <c r="C4" t="n">
-        <v>0.880160454574409</v>
+        <v>0.911351250035721</v>
       </c>
       <c r="D4" t="n">
-        <v>0.963578880090825</v>
+        <v>0.848166229839107</v>
       </c>
       <c r="E4" t="n">
-        <v>0.862337106131045</v>
+        <v>0.910481763184999</v>
       </c>
       <c r="F4" t="n">
-        <v>0.915042653921643</v>
+        <v>0.984136205685761</v>
       </c>
       <c r="G4" t="n">
-        <v>0.983212292573018</v>
+        <v>0.92820712521606</v>
       </c>
       <c r="H4" t="n">
-        <v>0.969797438269258</v>
+        <v>0.96563126267581</v>
       </c>
       <c r="I4" t="n">
-        <v>0.920286057896182</v>
+        <v>0.829439588434171</v>
       </c>
       <c r="J4" t="n">
-        <v>0.795695654520004</v>
+        <v>0.891051234954016</v>
       </c>
       <c r="K4" t="n">
-        <v>0.881859286007646</v>
+        <v>0.853697098889332</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.986711103064962</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.878807639278622</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>0.906804301639464</v>
+        <v>0.8850694003453</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9468046218946</v>
+        <v>0.912059398288718</v>
       </c>
       <c r="D5" t="n">
-        <v>0.967952806643789</v>
+        <v>0.891605882783844</v>
       </c>
       <c r="E5" t="n">
-        <v>0.835983711619876</v>
+        <v>0.924002044597885</v>
       </c>
       <c r="F5" t="n">
-        <v>0.872602742679419</v>
+        <v>0.9649832584121</v>
       </c>
       <c r="G5" t="n">
-        <v>0.951811795218071</v>
+        <v>0.916849072710622</v>
       </c>
       <c r="H5" t="n">
-        <v>0.924420372603302</v>
+        <v>0.89139795054932</v>
       </c>
       <c r="I5" t="n">
-        <v>0.630407048102517</v>
+        <v>0.875882853828117</v>
       </c>
       <c r="J5" t="n">
-        <v>0.894129222943196</v>
+        <v>0.836945764747576</v>
       </c>
       <c r="K5" t="n">
-        <v>0.913515090650987</v>
+        <v>0.842865740192205</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.958961583844549</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.858572442636635</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/split_many_global_positive.xlsx
+++ b/xlsx/country_comparison/split_many_global_positive.xlsx
@@ -442,10 +442,10 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>0.86819559320201</v>
+        <v>0.868207762704881</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9009114656142</v>
+        <v>0.900911465614199</v>
       </c>
       <c r="D2" t="n">
         <v>0.886361198970453</v>
@@ -469,13 +469,13 @@
         <v>0.888485251655774</v>
       </c>
       <c r="K2" t="n">
-        <v>0.794353909933474</v>
+        <v>0.794347742737546</v>
       </c>
       <c r="L2" t="n">
         <v>0.985662647490559</v>
       </c>
       <c r="M2" t="n">
-        <v>0.854261619735472</v>
+        <v>0.854282793161759</v>
       </c>
     </row>
     <row r="3">
@@ -483,7 +483,7 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>0.887416728635225</v>
+        <v>0.887459267702903</v>
       </c>
       <c r="C3" t="n">
         <v>0.912390601327414</v>
@@ -510,13 +510,13 @@
         <v>0.832649399963089</v>
       </c>
       <c r="K3" t="n">
-        <v>0.845694943055003</v>
+        <v>0.845714552392868</v>
       </c>
       <c r="L3" t="n">
         <v>0.963896373943999</v>
       </c>
       <c r="M3" t="n">
-        <v>0.864590085900981</v>
+        <v>0.864616508094897</v>
       </c>
     </row>
     <row r="4">
@@ -524,7 +524,7 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>0.896166639398233</v>
+        <v>0.896231684989246</v>
       </c>
       <c r="C4" t="n">
         <v>0.911351250035721</v>
@@ -551,13 +551,13 @@
         <v>0.891051234954016</v>
       </c>
       <c r="K4" t="n">
-        <v>0.853697098889332</v>
+        <v>0.853858534412648</v>
       </c>
       <c r="L4" t="n">
         <v>0.986711103064962</v>
       </c>
       <c r="M4" t="n">
-        <v>0.878807639278622</v>
+        <v>0.878768046887914</v>
       </c>
     </row>
     <row r="5">
@@ -565,7 +565,7 @@
         <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8850694003453</v>
+        <v>0.885132026693119</v>
       </c>
       <c r="C5" t="n">
         <v>0.912059398288718</v>
@@ -592,13 +592,13 @@
         <v>0.836945764747576</v>
       </c>
       <c r="K5" t="n">
-        <v>0.842865740192205</v>
+        <v>0.842980338337952</v>
       </c>
       <c r="L5" t="n">
         <v>0.958961583844549</v>
       </c>
       <c r="M5" t="n">
-        <v>0.858572442636635</v>
+        <v>0.858769060223575</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/split_many_global_positive.xlsx
+++ b/xlsx/country_comparison/split_many_global_positive.xlsx
@@ -445,7 +445,7 @@
         <v>0.868207762704881</v>
       </c>
       <c r="C2" t="n">
-        <v>0.900911465614199</v>
+        <v>0.9009114656142</v>
       </c>
       <c r="D2" t="n">
         <v>0.886361198970453</v>
